--- a/biology/Zoologie/Hemicloea/Hemicloea.xlsx
+++ b/biology/Zoologie/Hemicloea/Hemicloea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemicloea est un genre d'araignées aranéomorphes de la famille des Trochanteriidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemicloea est un genre d'araignées aranéomorphes de la famille des Trochanteriidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie, en Nouvelle-Zélande et en Nouvelle-Calédonie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Australie, en Nouvelle-Zélande et en Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 19.5, 14/12/2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 19.5, 14/12/2018) :
 Hemicloea affinis L. Koch, 1875
 Hemicloea crocotila Simon, 1908
 Hemicloea limbata L. Koch, 1875
@@ -585,9 +601,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été déplacé des Gnaphosidae aux Trochanteriidae par Azevedo, Griswold et Santos en 2018[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été déplacé des Gnaphosidae aux Trochanteriidae par Azevedo, Griswold et Santos en 2018.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1870 : Araneae nonnullae Novae Hollandie, descriptae. Öfversigt af Königlich Vetenskaps - Akademiens Förhandlingar, vol. 27, p. 367-389.</t>
         </is>
